--- a/econometrics/SEM2/balli/data/invest.xlsx
+++ b/econometrics/SEM2/balli/data/invest.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsedoff\Documents\VSCODE\ITiABD-PM22-7-Nikolay-Sedov\econometrics\SEM2\balli\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52391D9-7FBE-4838-A278-3D014E42A8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="до 2016 г." sheetId="1" r:id="rId1"/>
-    <sheet name="с 2017 г." sheetId="2" r:id="rId2"/>
+    <sheet name="2017" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -190,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -505,7 +511,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -574,7 +580,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,14 +588,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -627,7 +636,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -699,7 +708,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -872,30 +881,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="41.54296875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>46</v>
       </c>
@@ -910,7 +919,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="27">
         <v>2007</v>
@@ -943,7 +952,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
@@ -958,7 +967,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>96533.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1017,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>2328.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>1727.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>19234.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>10074.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>199.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>1426.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>1553.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1332,7 @@
         <v>22333</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
@@ -1338,7 +1347,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>2064.4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>330.8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>22</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>23</v>
       </c>
@@ -1478,7 +1487,7 @@
         <v>5444.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>524.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>10356.5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="66" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>15457.4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>2582.1999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>14</v>
       </c>
@@ -1653,7 +1662,7 @@
         <v>1519.2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>15</v>
       </c>
@@ -1688,7 +1697,7 @@
         <v>4380.6000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1712,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="34"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1762,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
-    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>2</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>3</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>4</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
         <v>6</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
         <v>8</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2092,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
         <v>20</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="22" t="s">
         <v>21</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="22" t="s">
         <v>22</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
         <v>23</v>
       </c>
@@ -2223,7 +2232,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
         <v>11</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>17</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="66" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -2328,7 +2337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="22" t="s">
         <v>13</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.35">
       <c r="A48" s="22" t="s">
         <v>14</v>
       </c>
@@ -2398,7 +2407,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
         <v>15</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>18</v>
       </c>
@@ -2448,10 +2457,10 @@
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
     </row>
   </sheetData>
@@ -2467,20 +2476,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="7" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -2491,7 +2500,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>26</v>
       </c>
@@ -2502,7 +2511,7 @@
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13">
         <v>2017</v>
@@ -2523,7 +2532,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>44</v>
       </c>
@@ -2534,7 +2543,7 @@
       <c r="F4" s="38"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -2557,7 +2566,7 @@
         <v>248624.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>28</v>
       </c>
@@ -2568,7 +2577,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>34573.699999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>1818.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
@@ -2637,7 +2646,7 @@
         <v>47050.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="50.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="50" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>18239.3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="66.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="66.5" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
@@ -2683,7 +2692,7 @@
         <v>2382.1999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>4354.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="50.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="50" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
@@ -2729,7 +2738,7 @@
         <v>17886.400000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A14" s="15" t="s">
         <v>33</v>
       </c>
@@ -2752,7 +2761,7 @@
         <v>63087.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
@@ -2775,7 +2784,7 @@
         <v>7825.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
         <v>35</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>9888.4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
         <v>36</v>
       </c>
@@ -2821,7 +2830,7 @@
         <v>725.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
@@ -2844,7 +2853,7 @@
         <v>12083.3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>3320.1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="50.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="50" x14ac:dyDescent="0.4">
       <c r="A20" s="15" t="s">
         <v>39</v>
       </c>
@@ -2890,7 +2899,7 @@
         <v>504.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
@@ -2913,7 +2922,7 @@
         <v>5760.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
         <v>13</v>
       </c>
@@ -2936,7 +2945,7 @@
         <v>10531.2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15" t="s">
         <v>41</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>3628.8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="50.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="50" x14ac:dyDescent="0.4">
       <c r="A24" s="15" t="s">
         <v>42</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>4866.6000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
         <v>43</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>16</v>
       </c>
@@ -3016,7 +3025,7 @@
       <c r="F26" s="42"/>
       <c r="G26" s="43"/>
     </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3039,7 +3048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>28</v>
       </c>
@@ -3050,7 +3059,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A29" s="15" t="s">
         <v>29</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A30" s="15" t="s">
         <v>4</v>
       </c>
@@ -3096,7 +3105,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A31" s="15" t="s">
         <v>5</v>
       </c>
@@ -3119,7 +3128,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="50.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="50" x14ac:dyDescent="0.4">
       <c r="A32" s="15" t="s">
         <v>30</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="66.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="66.5" x14ac:dyDescent="0.4">
       <c r="A33" s="15" t="s">
         <v>31</v>
       </c>
@@ -3165,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>7</v>
       </c>
@@ -3188,7 +3197,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="50.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="50" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>32</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A36" s="15" t="s">
         <v>33</v>
       </c>
@@ -3234,7 +3243,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>34</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A38" s="15" t="s">
         <v>35</v>
       </c>
@@ -3280,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="s">
         <v>36</v>
       </c>
@@ -3303,7 +3312,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A40" s="15" t="s">
         <v>37</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="33.5" x14ac:dyDescent="0.4">
       <c r="A41" s="15" t="s">
         <v>38</v>
       </c>
@@ -3349,7 +3358,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="50.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="50" x14ac:dyDescent="0.4">
       <c r="A42" s="15" t="s">
         <v>39</v>
       </c>
@@ -3372,7 +3381,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="15" t="s">
         <v>40</v>
       </c>
@@ -3395,7 +3404,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A44" s="15" t="s">
         <v>13</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="15" t="s">
         <v>41</v>
       </c>
@@ -3441,7 +3450,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="50.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="50" x14ac:dyDescent="0.4">
       <c r="A46" s="15" t="s">
         <v>42</v>
       </c>
@@ -3464,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15" t="s">
         <v>43</v>
       </c>
@@ -3487,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
         <v>18</v>
       </c>
@@ -3511,12 +3520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
